--- a/result/merlin_ARIMAFD_abnormal_point_univariate.xlsx
+++ b/result/merlin_ARIMAFD_abnormal_point_univariate.xlsx
@@ -1833,11 +1833,15 @@
       <c r="L25" t="n">
         <v>3039.984172287048</v>
       </c>
-      <c r="M25" t="n">
-        <v>170</v>
-      </c>
-      <c r="N25" t="n">
-        <v>7</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>RAS</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>RAS</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1871,19 +1875,19 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>[1504, 2019, 3404]</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>params</t>
+          <t>{'AR_window_size': 30, 'differencing-order': 5}</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>26.207731008064</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -1927,7 +1931,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>[176, 177, 1066, 1691, 9736]</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -1935,21 +1939,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>params</t>
+          <t>{'AR_window_size': 33, 'differencing-order': 3}</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>RAS</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>RAS</t>
-        </is>
+        <v>187.920272791991</v>
+      </c>
+      <c r="M27" t="n">
+        <v>33</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="28">
